--- a/StructureDefinition-ARFCarePlan.xlsx
+++ b/StructureDefinition-ARFCarePlan.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-21T11:55:01+10:00</t>
+    <t>2024-05-21T16:48:43+10:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -715,7 +715,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://fhir-arf-register.nardhc.org/StructureDefinition/ARFPatient)
+    <t xml:space="preserve">Reference(Patient)
 </t>
   </si>
   <si>
@@ -829,7 +829,7 @@
     <t>CarePlan.author</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://fhir-arf-register.nardhc.org/StructureDefinition/ARFPractitioner|http://fhir-arf-register.nardhc.org/StructureDefinition/ARFPractitionerRole)
+    <t xml:space="preserve">Reference(Practitioner|PractitionerRole)
 </t>
   </si>
   <si>
@@ -1099,7 +1099,7 @@
     <t>CarePlan.activity.reference</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://fhir-arf-register.nardhc.org/StructureDefinition/ARFMedicationRequest)
+    <t xml:space="preserve">Reference(MedicationRequest)
 </t>
   </si>
   <si>
@@ -1836,7 +1836,7 @@
     <col min="8" max="8" width="14.625" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.98828125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="142.6171875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="105.69140625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>

--- a/StructureDefinition-ARFCarePlan.xlsx
+++ b/StructureDefinition-ARFCarePlan.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-21T16:48:43+10:00</t>
+    <t>2024-05-23T13:27:21+10:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ARFCarePlan.xlsx
+++ b/StructureDefinition-ARFCarePlan.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.1</t>
+    <t>0.1.3</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-23T13:27:21+10:00</t>
+    <t>2024-05-23T13:42:03+10:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ARFCarePlan.xlsx
+++ b/StructureDefinition-ARFCarePlan.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-23T13:42:03+10:00</t>
+    <t>2024-05-23T14:45:45+10:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ARFCarePlan.xlsx
+++ b/StructureDefinition-ARFCarePlan.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-23T14:45:45+10:00</t>
+    <t>2024-05-23T15:19:20+10:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ARFCarePlan.xlsx
+++ b/StructureDefinition-ARFCarePlan.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-23T15:19:20+10:00</t>
+    <t>2024-05-27T13:31:05+10:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ARFCarePlan.xlsx
+++ b/StructureDefinition-ARFCarePlan.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-27T13:31:05+10:00</t>
+    <t>2024-05-30T15:43:42+10:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ARFCarePlan.xlsx
+++ b/StructureDefinition-ARFCarePlan.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.3</t>
+    <t>0.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-30T15:43:42+10:00</t>
+    <t>2024-10-24T17:10:08+10:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ARFCarePlan.xlsx
+++ b/StructureDefinition-ARFCarePlan.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-24T17:10:08+10:00</t>
+    <t>2024-10-28T13:52:40+10:00</t>
   </si>
   <si>
     <t>Publisher</t>
